--- a/document/sample_data/DB 샘플 데이터.xlsx
+++ b/document/sample_data/DB 샘플 데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="공급회사 데이터 샘플" sheetId="2" r:id="rId1"/>
@@ -3804,7 +3804,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;m&quot;-&quot;d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -3984,7 +3984,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="J3" t="str">
         <f ca="1">CHAR(RANDBETWEEN(49,57))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>494</v>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="J4" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))</f>
-        <v>A</v>
+        <v>P</v>
       </c>
       <c r="K4" t="s">
         <v>495</v>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="J5" t="str">
         <f ca="1">CHAR(RANDBETWEEN(97,122))</f>
-        <v>y</v>
+        <v>j</v>
       </c>
       <c r="L5" t="s">
         <v>496</v>
@@ -8866,7 +8866,7 @@
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 )</f>
-        <v>jmTOF76rU</v>
+        <v>7v6m98F39</v>
       </c>
       <c r="L6" t="s">
         <v>496</v>
@@ -11398,7 +11398,7 @@
       </c>
       <c r="C2" s="1">
         <f ca="1">INT((RAND()*15)+1)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C10" ca="1" si="0">INT((RAND()*15)+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -11446,7 +11446,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11584,7 +11584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -11730,18 +11730,18 @@
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 )</f>
-        <v>2b89nohel</v>
+        <v>8S4AD6gWy</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>497</v>
       </c>
       <c r="H2" s="1" t="str">
         <f ca="1">CONCATENATE(F2,N2,INDIRECT("L"&amp;RANDBETWEEN(2,4)))</f>
-        <v>2b89nohel@</v>
+        <v>8S4AD6gWy@W</v>
       </c>
       <c r="I2" s="13">
         <f ca="1">RANDBETWEEN(DATE(2020,2,1),DATE(2020,2,30))</f>
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="J2" s="1">
         <v>6</v>
@@ -11796,18 +11796,18 @@
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 )</f>
-        <v>EtN46NO23</v>
+        <v>KcK49oBtY</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>498</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H55" ca="1" si="1">CONCATENATE(F3,N3,INDIRECT("L"&amp;RANDBETWEEN(2,4)))</f>
-        <v>EtN46NO23@</v>
+        <v>KcK49oBtY@</v>
       </c>
       <c r="I3" s="13">
         <f t="shared" ref="I3:I56" ca="1" si="2">RANDBETWEEN(DATE(2020,2,1),DATE(2020,2,30))</f>
-        <v>43864</v>
+        <v>43881</v>
       </c>
       <c r="J3" s="1">
         <v>15</v>
@@ -11856,25 +11856,25 @@
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18t6O4zkN</v>
+        <v>5jA9HuUk7</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>499</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>18t6O4zkN@H</v>
+        <v>5jA9HuUk7@</v>
       </c>
       <c r="I4" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43864</v>
+        <v>43867</v>
       </c>
       <c r="J4" s="1">
         <v>24</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))</f>
-        <v>H</v>
+        <v>W</v>
       </c>
       <c r="M4" t="s">
         <v>495</v>
@@ -11901,11 +11901,11 @@
       </c>
       <c r="B5" s="1" t="str">
         <f ca="1">CONCATENATE(INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("R"&amp;RANDBETWEEN(2,4)))</f>
-        <v>사선정보통신</v>
+        <v>본변시스템</v>
       </c>
       <c r="C5" s="4" t="str">
         <f ca="1">CONCATENATE(INDIRECT("P"&amp;RANDBETWEEN(2,17)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)))</f>
-        <v>현구용</v>
+        <v>이삼선</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>625</v>
@@ -11915,25 +11915,25 @@
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3bTRi5Ymc</v>
+        <v>6g4snL81p</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>500</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3bTRi5Ymc@8</v>
+        <v>6g4snL81p@</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43870</v>
+        <v>43887</v>
       </c>
       <c r="J5" s="1">
         <v>33</v>
       </c>
       <c r="L5" t="str">
         <f ca="1">CHAR(RANDBETWEEN(97,122))</f>
-        <v>f</v>
+        <v>k</v>
       </c>
       <c r="N5" t="s">
         <v>496</v>
@@ -11954,11 +11954,11 @@
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" ref="B6:B20" ca="1" si="3">CONCATENATE(INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("R"&amp;RANDBETWEEN(2,4)))</f>
-        <v>전가정보통신</v>
+        <v>공공정보통신</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" ref="C6:C55" ca="1" si="4">CONCATENATE(INDIRECT("P"&amp;RANDBETWEEN(2,17)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)))</f>
-        <v>왕복용</v>
+        <v>최가자</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>626</v>
@@ -11968,18 +11968,18 @@
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4x69E727P</v>
+        <v>gB5rsyS1q</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>501</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4x69E727P@H</v>
+        <v>gB5rsyS1q@</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43879</v>
+        <v>43868</v>
       </c>
       <c r="J6" s="1">
         <v>42</v>
@@ -11996,7 +11996,7 @@
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 CHOOSE(RANDBETWEEN(1,3),CHAR(RANDBETWEEN(49,57)),CHAR(RANDBETWEEN(65,90)),CHAR(RANDBETWEEN(97,122))),
 )</f>
-        <v>19S5S2YKA</v>
+        <v>LK5f1dyVL</v>
       </c>
       <c r="N6" t="s">
         <v>496</v>
@@ -12017,11 +12017,11 @@
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>소출정보통신</v>
+        <v>고필정보통신</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>현선개</v>
+        <v>박석용</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>627</v>
@@ -12031,18 +12031,18 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Z9G927mr4</v>
+        <v>rqruPCRhM</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>502</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Z9G927mr4@H</v>
+        <v>rqruPCRhM@W</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43868</v>
+        <v>43885</v>
       </c>
       <c r="J7" s="1">
         <v>49</v>
@@ -12066,11 +12066,11 @@
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>소소정보통신</v>
+        <v>기우PC방</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>홍천정</v>
+        <v>홍용상</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>628</v>
@@ -12080,18 +12080,18 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1978XX236</v>
+        <v>oOaOzXYCG</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>503</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1978XX236@8</v>
+        <v>oOaOzXYCG@</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43889</v>
+        <v>43869</v>
       </c>
       <c r="J8" s="1">
         <v>53</v>
@@ -12115,11 +12115,11 @@
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>여야시스템</v>
+        <v>중내시스템</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>한우병</v>
+        <v>최오복</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>629</v>
@@ -12129,18 +12129,18 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3KulF89so</v>
+        <v>4568Zs7r2</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>504</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3KulF89so@H</v>
+        <v>4568Zs7r2@</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43873</v>
+        <v>43885</v>
       </c>
       <c r="J9" s="1">
         <v>57</v>
@@ -12164,11 +12164,11 @@
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>태내PC방</v>
+        <v>사만시스템</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>천구구</v>
+        <v>이단기</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>630</v>
@@ -12178,18 +12178,18 @@
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>yRF3ls3pP</v>
+        <v>ghd4b3a6i</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>505</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>yRF3ls3pP@H</v>
+        <v>ghd4b3a6i@W</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43874</v>
+        <v>43889</v>
       </c>
       <c r="J10" s="1">
         <v>61</v>
@@ -12213,11 +12213,11 @@
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>사선정보통신</v>
+        <v>상임시스템</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>한임야</v>
+        <v>문차사</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>631</v>
@@ -12227,18 +12227,18 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>59Il41Jt2</v>
+        <v>94H5kC1yJ</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>506</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>59Il41Jt2@H</v>
+        <v>94H5kC1yJ@</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43874</v>
+        <v>43880</v>
       </c>
       <c r="J11" s="1">
         <v>65</v>
@@ -12262,11 +12262,11 @@
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>야윤정보통신</v>
+        <v>단구PC방</v>
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>현소차</v>
+        <v>양사본</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>632</v>
@@ -12276,18 +12276,18 @@
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>qd4ZPgSHI</v>
+        <v>pxGL3hn9i</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>507</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>qd4ZPgSHI@H</v>
+        <v>pxGL3hn9i@W</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43874</v>
+        <v>43863</v>
       </c>
       <c r="J12" s="1">
         <v>69</v>
@@ -12311,11 +12311,11 @@
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>대우시스템</v>
+        <v>공본PC방</v>
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>홍사파</v>
+        <v>강야임</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>633</v>
@@ -12325,18 +12325,18 @@
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>q622Du1R2</v>
+        <v>rnJq973l3</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>508</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>q622Du1R2@8</v>
+        <v>rnJq973l3@</v>
       </c>
       <c r="I13" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43890</v>
+        <v>43875</v>
       </c>
       <c r="J13" s="1">
         <v>73</v>
@@ -12360,11 +12360,11 @@
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>사자시스템</v>
+        <v>선사정보통신</v>
       </c>
       <c r="C14" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>황범석</v>
+        <v>홍우정</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>634</v>
@@ -12374,18 +12374,18 @@
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5i7G95sxj</v>
+        <v>96gSsOJy4</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>509</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5i7G95sxj@H</v>
+        <v>96gSsOJy4@W</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43891</v>
+        <v>43863</v>
       </c>
       <c r="J14" s="1">
         <v>77</v>
@@ -12409,11 +12409,11 @@
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>변홍정보통신</v>
+        <v>사금PC방</v>
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강상복</v>
+        <v>홍용력</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>635</v>
@@ -12423,18 +12423,18 @@
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>RYyPzA2qJ</v>
+        <v>8HH6jhlPk</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>510</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>RYyPzA2qJ@</v>
+        <v>8HH6jhlPk@8</v>
       </c>
       <c r="I15" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43887</v>
+        <v>43864</v>
       </c>
       <c r="J15" s="1">
         <v>7</v>
@@ -12458,11 +12458,11 @@
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>구필정보통신</v>
+        <v>우우PC방</v>
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>한병정</v>
+        <v>양지내</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>636</v>
@@ -12472,14 +12472,14 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>eFi9T4QoE</v>
+        <v>IZ3K2x68u</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>511</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>eFi9T4QoE@8</v>
+        <v>IZ3K2x68u@</v>
       </c>
       <c r="I16" s="13">
         <f t="shared" ca="1" si="2"/>
@@ -12507,11 +12507,11 @@
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>소목정보통신</v>
+        <v>천충PC방</v>
       </c>
       <c r="C17" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>김파정</v>
+        <v>한태화</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>637</v>
@@ -12521,18 +12521,18 @@
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3GUztVRXK</v>
+        <v>xBG3pO73t</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>512</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3GUztVRXK@</v>
+        <v>xBG3pO73t@8</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43862</v>
+        <v>43868</v>
       </c>
       <c r="J17" s="1">
         <v>25</v>
@@ -12556,11 +12556,11 @@
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>태가시스템</v>
+        <v>내정PC방</v>
       </c>
       <c r="C18" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>서금운</v>
+        <v>문만우</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>638</v>
@@ -12570,18 +12570,18 @@
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9lljf49Cg</v>
+        <v>W88388thU</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>513</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9lljf49Cg@H</v>
+        <v>W88388thU@8</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43862</v>
+        <v>43889</v>
       </c>
       <c r="J18" s="1">
         <v>34</v>
@@ -12602,11 +12602,11 @@
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>공대시스템</v>
+        <v>원여정보통신</v>
       </c>
       <c r="C19" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>왕우선</v>
+        <v>최상본</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>639</v>
@@ -12616,14 +12616,14 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Cw4B5S4S2</v>
+        <v>Ezb97AADA</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>514</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cw4B5S4S2@</v>
+        <v>Ezb97AADA@</v>
       </c>
       <c r="I19" s="13">
         <f t="shared" ca="1" si="2"/>
@@ -12645,11 +12645,11 @@
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>승구시스템</v>
+        <v>천우시스템</v>
       </c>
       <c r="C20" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>최공을</v>
+        <v>장만오</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>640</v>
@@ -12659,18 +12659,18 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>NC34vDLcL</v>
+        <v>TqQ6lvI6J</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>515</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NC34vDLcL@H</v>
+        <v>TqQ6lvI6J@W</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43870</v>
+        <v>43865</v>
       </c>
       <c r="J20" s="1">
         <v>50</v>
@@ -12688,11 +12688,11 @@
       </c>
       <c r="B21" s="1" t="str">
         <f ca="1">CONCATENATE(INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("Q"&amp;RANDBETWEEN(2,85)),INDIRECT("R"&amp;RANDBETWEEN(2,4)))</f>
-        <v>선무시스템</v>
+        <v>승입시스템</v>
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>이가복</v>
+        <v>현본태</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>641</v>
@@ -12702,18 +12702,18 @@
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>39Tq46Dsj</v>
+        <v>LRwcUvPKy</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>516</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>39Tq46Dsj@</v>
+        <v>LRwcUvPKy@W</v>
       </c>
       <c r="I21" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43876</v>
+        <v>43877</v>
       </c>
       <c r="J21" s="1">
         <v>54</v>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="C22" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>문태공</v>
+        <v>한전토</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>645</v>
@@ -12744,18 +12744,18 @@
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>T7Hs7c9OR</v>
+        <v>9E9Kh6oOy</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>517</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>T7Hs7c9OR@H</v>
+        <v>9E9Kh6oOy@W</v>
       </c>
       <c r="I22" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43883</v>
+        <v>43872</v>
       </c>
       <c r="J22" s="1">
         <v>58</v>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="C23" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>황심사</v>
+        <v>최만인</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>646</v>
@@ -12786,18 +12786,18 @@
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>euEAog83t</v>
+        <v>59cJw4IV1</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>518</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>euEAog83t@8</v>
+        <v>59cJw4IV1@</v>
       </c>
       <c r="I23" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43891</v>
+        <v>43870</v>
       </c>
       <c r="J23" s="1">
         <v>62</v>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="C24" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>홍윤용</v>
+        <v>현석필</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>647</v>
@@ -12828,18 +12828,18 @@
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>M6Y9yFmtt</v>
+        <v>8179lA5u8</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>519</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>M6Y9yFmtt@</v>
+        <v>8179lA5u8@W</v>
       </c>
       <c r="I24" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43869</v>
+        <v>43885</v>
       </c>
       <c r="J24" s="1">
         <v>66</v>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="C25" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>박삼차</v>
+        <v>황전우</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>648</v>
@@ -12870,18 +12870,18 @@
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>L552eK2d6</v>
+        <v>794ljdtvW</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>520</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>L552eK2d6@</v>
+        <v>794ljdtvW@</v>
       </c>
       <c r="I25" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="J25" s="1">
         <v>70</v>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>박력영</v>
+        <v>박천우</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>649</v>
@@ -12912,18 +12912,18 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8fDlY7E7Q</v>
+        <v>M965UlMck</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>521</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8fDlY7E7Q@</v>
+        <v>M965UlMck@W</v>
       </c>
       <c r="I26" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="J26" s="1">
         <v>74</v>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="C27" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>현소입</v>
+        <v>왕내자</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>650</v>
@@ -12954,18 +12954,18 @@
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>rVHe22359</v>
+        <v>oibMCsS1E</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>522</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>rVHe22359@8</v>
+        <v>oibMCsS1E@W</v>
       </c>
       <c r="I27" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43867</v>
+        <v>43889</v>
       </c>
       <c r="J27" s="1">
         <v>78</v>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="C28" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>장대천</v>
+        <v>홍삼단</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>651</v>
@@ -12996,18 +12996,18 @@
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>pZRVdTQoa</v>
+        <v>Ic69abgf5</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>523</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pZRVdTQoa@H</v>
+        <v>Ic69abgf5@W</v>
       </c>
       <c r="I28" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43890</v>
+        <v>43877</v>
       </c>
       <c r="J28" s="1">
         <v>58</v>
@@ -13028,7 +13028,7 @@
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>최단화</v>
+        <v>최공영</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>652</v>
@@ -13038,18 +13038,18 @@
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>f46TU73Nu</v>
+        <v>7eqxB5p2u</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>524</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>f46TU73Nu@</v>
+        <v>7eqxB5p2u@W</v>
       </c>
       <c r="I29" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43887</v>
+        <v>43874</v>
       </c>
       <c r="J29" s="1">
         <v>62</v>
@@ -13070,7 +13070,7 @@
       </c>
       <c r="C30" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>천전입</v>
+        <v>한우승</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>653</v>
@@ -13080,18 +13080,18 @@
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>58Ri8VPxg</v>
+        <v>4w6cgA8lm</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>525</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>58Ri8VPxg@8</v>
+        <v>4w6cgA8lm@W</v>
       </c>
       <c r="I30" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43869</v>
+        <v>43872</v>
       </c>
       <c r="J30" s="1">
         <v>66</v>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>황공목</v>
+        <v>홍대충</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>654</v>
@@ -13122,18 +13122,18 @@
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>y8x8QNHaZ</v>
+        <v>a7ms6CSp2</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>526</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>y8x8QNHaZ@</v>
+        <v>a7ms6CSp2@</v>
       </c>
       <c r="I31" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43881</v>
+        <v>43888</v>
       </c>
       <c r="J31" s="1">
         <v>70</v>
@@ -13154,7 +13154,7 @@
       </c>
       <c r="C32" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강목임</v>
+        <v>황차공</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>655</v>
@@ -13164,18 +13164,18 @@
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>g123gyu1l</v>
+        <v>53Y5Zj5JC</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>527</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>g123gyu1l@8</v>
+        <v>53Y5Zj5JC@W</v>
       </c>
       <c r="I32" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43875</v>
+        <v>43862</v>
       </c>
       <c r="J32" s="1">
         <v>74</v>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="C33" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>김윤운</v>
+        <v>황세우</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>656</v>
@@ -13206,18 +13206,18 @@
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9d1jt2o45</v>
+        <v>rD9K3Rgrx</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>528</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9d1jt2o45@H</v>
+        <v>rD9K3Rgrx@W</v>
       </c>
       <c r="I33" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43864</v>
+        <v>43868</v>
       </c>
       <c r="J33" s="1">
         <v>78</v>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="C34" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강태공</v>
+        <v>왕단옥</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>657</v>
@@ -13248,18 +13248,18 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>pWV4J1eGN</v>
+        <v>XY55Cy6h9</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>529</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>pWV4J1eGN@H</v>
+        <v>XY55Cy6h9@</v>
       </c>
       <c r="I34" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43867</v>
+        <v>43890</v>
       </c>
       <c r="J34" s="1">
         <v>8</v>
@@ -13280,7 +13280,7 @@
       </c>
       <c r="C35" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>양천정</v>
+        <v>김인필</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>658</v>
@@ -13290,18 +13290,18 @@
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>x4UViYs5l</v>
+        <v>6Ax79C1t9</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>530</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>x4UViYs5l@</v>
+        <v>6Ax79C1t9@W</v>
       </c>
       <c r="I35" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="J35" s="1">
         <v>17</v>
@@ -13322,7 +13322,7 @@
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>한윤금</v>
+        <v>황충호</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>659</v>
@@ -13332,18 +13332,18 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>aRefHLH8V</v>
+        <v>XaT7mVoUZ</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>531</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>aRefHLH8V@8</v>
+        <v>XaT7mVoUZ@8</v>
       </c>
       <c r="I36" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43862</v>
+        <v>43867</v>
       </c>
       <c r="J36" s="1">
         <v>26</v>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="C37" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>양전구</v>
+        <v>장범공</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>660</v>
@@ -13374,18 +13374,18 @@
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JDKR4f3r6</v>
+        <v>EssBLo6bA</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>532</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JDKR4f3r6@</v>
+        <v>EssBLo6bA@</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43865</v>
+        <v>43878</v>
       </c>
       <c r="J37" s="1">
         <v>35</v>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="C38" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>천전입</v>
+        <v>서우입</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>661</v>
@@ -13416,18 +13416,18 @@
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Ha36cM1bp</v>
+        <v>5c2g1X3f7</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>533</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ha36cM1bp@</v>
+        <v>5c2g1X3f7@</v>
       </c>
       <c r="I38" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43879</v>
+        <v>43865</v>
       </c>
       <c r="J38" s="1">
         <v>44</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="C39" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강대가</v>
+        <v>왕지범</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>662</v>
@@ -13458,18 +13458,18 @@
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F3o9N8B2S</v>
+        <v>15r26Zf1q</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>534</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>F3o9N8B2S@8</v>
+        <v>15r26Zf1q@8</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43888</v>
+        <v>43884</v>
       </c>
       <c r="J39" s="1">
         <v>51</v>
@@ -13490,7 +13490,7 @@
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>현삼사</v>
+        <v>양오심</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>663</v>
@@ -13500,18 +13500,18 @@
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9d5YnK637</v>
+        <v>ZDEa2Is9c</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>535</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9d5YnK637@</v>
+        <v>ZDEa2Is9c@8</v>
       </c>
       <c r="I40" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43881</v>
+        <v>43870</v>
       </c>
       <c r="J40" s="1">
         <v>55</v>
@@ -13532,7 +13532,7 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>문구산</v>
+        <v>최사영</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>664</v>
@@ -13542,18 +13542,18 @@
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>h74zN7634</v>
+        <v>9a4112G5s</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>536</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>h74zN7634@</v>
+        <v>9a4112G5s@W</v>
       </c>
       <c r="I41" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43863</v>
+        <v>43878</v>
       </c>
       <c r="J41" s="1">
         <v>59</v>
@@ -13574,7 +13574,7 @@
       </c>
       <c r="C42" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>이력삼</v>
+        <v>최사만</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>665</v>
@@ -13584,18 +13584,18 @@
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3D224LpqB</v>
+        <v>K1CkYLs71</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>537</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3D224LpqB@</v>
+        <v>K1CkYLs71@</v>
       </c>
       <c r="I42" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43881</v>
+        <v>43873</v>
       </c>
       <c r="J42" s="1">
         <v>63</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="C43" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강선병</v>
+        <v>왕개석</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>666</v>
@@ -13626,18 +13626,18 @@
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>vYb21KrD4</v>
+        <v>ZfO2Ad4n8</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>538</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>vYb21KrD4@</v>
+        <v>ZfO2Ad4n8@8</v>
       </c>
       <c r="I43" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43891</v>
+        <v>43878</v>
       </c>
       <c r="J43" s="1">
         <v>67</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>최승원</v>
+        <v>현개궁</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>667</v>
@@ -13668,18 +13668,18 @@
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>hi65bXqSo</v>
+        <v>68KuMZg41</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>539</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>hi65bXqSo@</v>
+        <v>68KuMZg41@</v>
       </c>
       <c r="I44" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43877</v>
+        <v>43881</v>
       </c>
       <c r="J44" s="1">
         <v>71</v>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="C45" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>박신삼</v>
+        <v>최단병</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>668</v>
@@ -13710,18 +13710,18 @@
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Xt47p7P19</v>
+        <v>Vtov9yDjD</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>540</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Xt47p7P19@H</v>
+        <v>Vtov9yDjD@</v>
       </c>
       <c r="I45" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43887</v>
+        <v>43862</v>
       </c>
       <c r="J45" s="1">
         <v>75</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>왕중을</v>
+        <v>천소소</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>669</v>
@@ -13752,18 +13752,18 @@
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>HfZ6g84m8</v>
+        <v>UPaG8FcuO</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>541</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>HfZ6g84m8@</v>
+        <v>UPaG8FcuO@8</v>
       </c>
       <c r="I46" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43862</v>
+        <v>43890</v>
       </c>
       <c r="J46" s="1">
         <v>79</v>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="C47" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>황세윤</v>
+        <v>이공내</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>670</v>
@@ -13794,18 +13794,18 @@
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1b4e4jk4Q</v>
+        <v>VdjSN9Sv1</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>542</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1b4e4jk4Q@</v>
+        <v>VdjSN9Sv1@W</v>
       </c>
       <c r="I47" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43885</v>
+        <v>43888</v>
       </c>
       <c r="J47" s="1">
         <v>67</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="C48" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>양목궁</v>
+        <v>박공자</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>671</v>
@@ -13836,18 +13836,18 @@
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1B4piY7Q5</v>
+        <v>KJ3h1wcIb</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>543</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1B4piY7Q5@H</v>
+        <v>KJ3h1wcIb@8</v>
       </c>
       <c r="I48" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="J48" s="1">
         <v>71</v>
@@ -13868,7 +13868,7 @@
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>최입주</v>
+        <v>최개홍</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>672</v>
@@ -13878,18 +13878,18 @@
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bPb6gr5So</v>
+        <v>q8hI2cMjN</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>544</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>bPb6gr5So@</v>
+        <v>q8hI2cMjN@8</v>
       </c>
       <c r="I49" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="J49" s="1">
         <v>75</v>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>왕인병</v>
+        <v>홍범개</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>673</v>
@@ -13920,18 +13920,18 @@
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>85Ibfa1a1</v>
+        <v>4wBsmWLAt</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>545</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>85Ibfa1a1@8</v>
+        <v>4wBsmWLAt@</v>
       </c>
       <c r="I50" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43869</v>
+        <v>43889</v>
       </c>
       <c r="J50" s="1">
         <v>79</v>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>천인공</v>
+        <v>현석공</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>674</v>
@@ -13962,18 +13962,18 @@
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>IYiIHtRbE</v>
+        <v>9mNo3o95r</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>546</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>IYiIHtRbE@8</v>
+        <v>9mNo3o95r@</v>
       </c>
       <c r="I51" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43873</v>
+        <v>43885</v>
       </c>
       <c r="J51" s="1">
         <v>43</v>
@@ -13994,7 +13994,7 @@
       </c>
       <c r="C52" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>서우정</v>
+        <v>박사력</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>675</v>
@@ -14004,18 +14004,18 @@
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>38lKa9BLV</v>
+        <v>1v3YM13BV</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>547</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>38lKa9BLV@8</v>
+        <v>1v3YM13BV@</v>
       </c>
       <c r="I52" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43867</v>
+        <v>43875</v>
       </c>
       <c r="J52" s="1">
         <v>50</v>
@@ -14036,7 +14036,7 @@
       </c>
       <c r="C53" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>장정인</v>
+        <v>최사을</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>676</v>
@@ -14046,18 +14046,18 @@
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>v48G4dVxU</v>
+        <v>jNQaaXL5s</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>548</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>v48G4dVxU@8</v>
+        <v>jNQaaXL5s@8</v>
       </c>
       <c r="I53" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43875</v>
+        <v>43868</v>
       </c>
       <c r="J53" s="1">
         <v>54</v>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>강삼천</v>
+        <v>최단파</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>677</v>
@@ -14088,18 +14088,18 @@
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6sm4yc51P</v>
+        <v>5b1W7IPg2</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>549</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6sm4yc51P@H</v>
+        <v>5b1W7IPg2@8</v>
       </c>
       <c r="I54" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43862</v>
+        <v>43879</v>
       </c>
       <c r="J54" s="1">
         <v>58</v>
@@ -14120,7 +14120,7 @@
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>최단전</v>
+        <v>양자사</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>678</v>
@@ -14130,18 +14130,18 @@
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2M4ag13f1</v>
+        <v>zP5U38iCO</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>550</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2M4ag13f1@</v>
+        <v>zP5U38iCO@W</v>
       </c>
       <c r="I55" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43875</v>
+        <v>43885</v>
       </c>
       <c r="J55" s="1">
         <v>62</v>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="I56" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>43888</v>
+        <v>43865</v>
       </c>
       <c r="J56" s="1">
         <v>46</v>
@@ -15655,9 +15655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15723,11 +15723,11 @@
       </c>
       <c r="G2" s="1">
         <f ca="1">INT((RAND()*200)+1)</f>
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">RANDBETWEEN(DATE(2019,4,1),DATE(2020,2,20))</f>
-        <v>43737</v>
+        <v>43561</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -15753,11 +15753,11 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G66" ca="1" si="1">INT((RAND()*200)+1)</f>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H66" ca="1" si="2">RANDBETWEEN(DATE(2019,4,1),DATE(2020,2,20))</f>
-        <v>43656</v>
+        <v>43843</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43710</v>
+        <v>43748</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -15813,11 +15813,11 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43807</v>
+        <v>43715</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -15843,11 +15843,11 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43661</v>
+        <v>43814</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -15873,11 +15873,11 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43587</v>
+        <v>43756</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -15903,11 +15903,11 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -15933,11 +15933,11 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43726</v>
+        <v>43845</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -15963,11 +15963,11 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43609</v>
+        <v>43768</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -15993,11 +15993,11 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43831</v>
+        <v>43758</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -16023,11 +16023,11 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43558</v>
+        <v>43853</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -16053,11 +16053,11 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43817</v>
+        <v>43769</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -16083,11 +16083,11 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43580</v>
+        <v>43706</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -16113,11 +16113,11 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43650</v>
+        <v>43690</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43838</v>
+        <v>43766</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -16173,11 +16173,11 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43855</v>
+        <v>43850</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -16203,11 +16203,11 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43743</v>
+        <v>43636</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -16233,11 +16233,11 @@
       </c>
       <c r="G19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43661</v>
+        <v>43619</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -16263,11 +16263,11 @@
       </c>
       <c r="G20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43823</v>
+        <v>43820</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -16293,11 +16293,11 @@
       </c>
       <c r="G21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43776</v>
+        <v>43623</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -16323,11 +16323,11 @@
       </c>
       <c r="G22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43810</v>
+        <v>43783</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -16353,11 +16353,11 @@
       </c>
       <c r="G23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43874</v>
+        <v>43796</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -16383,11 +16383,11 @@
       </c>
       <c r="G24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43828</v>
+        <v>43806</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -16413,11 +16413,11 @@
       </c>
       <c r="G25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43739</v>
+        <v>43743</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -16443,11 +16443,11 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43861</v>
+        <v>43787</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -16473,11 +16473,11 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43625</v>
+        <v>43881</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43866</v>
+        <v>43673</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -16533,11 +16533,11 @@
       </c>
       <c r="G29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43591</v>
+        <v>43618</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -16563,11 +16563,11 @@
       </c>
       <c r="G30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43684</v>
+        <v>43862</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -16593,11 +16593,11 @@
       </c>
       <c r="G31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43764</v>
+        <v>43612</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -16623,11 +16623,11 @@
       </c>
       <c r="G32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43842</v>
+        <v>43788</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -16653,11 +16653,11 @@
       </c>
       <c r="G33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43599</v>
+        <v>43675</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -16683,11 +16683,11 @@
       </c>
       <c r="G34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43651</v>
+        <v>43716</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -16713,11 +16713,11 @@
       </c>
       <c r="G35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43740</v>
+        <v>43816</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -16743,11 +16743,11 @@
       </c>
       <c r="G36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43556</v>
+        <v>43711</v>
       </c>
       <c r="I36" s="1"/>
     </row>
@@ -16773,11 +16773,11 @@
       </c>
       <c r="G37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43789</v>
+        <v>43828</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -16803,11 +16803,11 @@
       </c>
       <c r="G38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43690</v>
+        <v>43778</v>
       </c>
       <c r="I38" s="1"/>
     </row>
@@ -16833,11 +16833,11 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43575</v>
+        <v>43731</v>
       </c>
       <c r="I39" s="1"/>
     </row>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43655</v>
+        <v>43701</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -16893,11 +16893,11 @@
       </c>
       <c r="G41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43689</v>
+        <v>43785</v>
       </c>
       <c r="I41" s="1"/>
     </row>
@@ -16923,11 +16923,11 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43731</v>
+        <v>43737</v>
       </c>
       <c r="I42" s="1"/>
     </row>
@@ -16953,11 +16953,11 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43802</v>
+        <v>43580</v>
       </c>
       <c r="I43" s="1"/>
     </row>
@@ -16983,11 +16983,11 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43708</v>
+        <v>43843</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -17013,11 +17013,11 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43682</v>
+        <v>43849</v>
       </c>
       <c r="I45" s="1"/>
     </row>
@@ -17043,11 +17043,11 @@
       </c>
       <c r="G46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43619</v>
+        <v>43612</v>
       </c>
       <c r="I46" s="1"/>
     </row>
@@ -17073,11 +17073,11 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43796</v>
+        <v>43640</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -17103,11 +17103,11 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43620</v>
+        <v>43697</v>
       </c>
       <c r="I48" s="1"/>
     </row>
@@ -17133,11 +17133,11 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43667</v>
+        <v>43627</v>
       </c>
       <c r="I49" s="1"/>
     </row>
@@ -17163,11 +17163,11 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43560</v>
+        <v>43754</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -17193,11 +17193,11 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43591</v>
+        <v>43793</v>
       </c>
       <c r="I51" s="1"/>
     </row>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43802</v>
+        <v>43584</v>
       </c>
       <c r="I52" s="1"/>
     </row>
@@ -17253,11 +17253,11 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43602</v>
+        <v>43831</v>
       </c>
       <c r="I53" s="1"/>
     </row>
@@ -17283,11 +17283,11 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43783</v>
+        <v>43647</v>
       </c>
       <c r="I54" s="1"/>
     </row>
@@ -17313,11 +17313,11 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43865</v>
+        <v>43621</v>
       </c>
       <c r="I55" s="1"/>
     </row>
@@ -17343,11 +17343,11 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43777</v>
+        <v>43701</v>
       </c>
       <c r="I56" s="1"/>
     </row>
@@ -17373,11 +17373,11 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43823</v>
+        <v>43810</v>
       </c>
       <c r="I57" s="1"/>
     </row>
@@ -17403,11 +17403,11 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43766</v>
+        <v>43857</v>
       </c>
       <c r="I58" s="1"/>
     </row>
@@ -17433,11 +17433,11 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43609</v>
+        <v>43778</v>
       </c>
       <c r="I59" s="1"/>
     </row>
@@ -17463,11 +17463,11 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43844</v>
+        <v>43792</v>
       </c>
       <c r="I60" s="1"/>
     </row>
@@ -17493,11 +17493,11 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43717</v>
+        <v>43706</v>
       </c>
       <c r="I61" s="1"/>
     </row>
@@ -17523,11 +17523,11 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43569</v>
+        <v>43862</v>
       </c>
       <c r="I62" s="1"/>
     </row>
@@ -17553,11 +17553,11 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43871</v>
+        <v>43740</v>
       </c>
       <c r="I63" s="1"/>
     </row>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43650</v>
+        <v>43568</v>
       </c>
       <c r="I64" s="1"/>
     </row>
@@ -17613,11 +17613,11 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43642</v>
+        <v>43858</v>
       </c>
       <c r="I65" s="1"/>
     </row>
@@ -17643,11 +17643,11 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43652</v>
+        <v>43871</v>
       </c>
       <c r="I66" s="1"/>
     </row>
@@ -17673,11 +17673,11 @@
       </c>
       <c r="G67" s="1">
         <f t="shared" ref="G67:G85" ca="1" si="4">INT((RAND()*200)+1)</f>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H67" s="3">
         <f t="shared" ref="H67:H84" ca="1" si="5">RANDBETWEEN(DATE(2019,4,1),DATE(2020,2,20))</f>
-        <v>43731</v>
+        <v>43622</v>
       </c>
       <c r="I67" s="1"/>
     </row>
@@ -17703,11 +17703,11 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="H68" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43582</v>
+        <v>43730</v>
       </c>
       <c r="I68" s="1"/>
     </row>
@@ -17733,11 +17733,11 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H69" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43777</v>
+        <v>43621</v>
       </c>
       <c r="I69" s="1"/>
     </row>
@@ -17763,11 +17763,11 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43794</v>
+        <v>43866</v>
       </c>
       <c r="I70" s="1"/>
     </row>
@@ -17793,11 +17793,11 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43668</v>
+        <v>43689</v>
       </c>
       <c r="I71" s="1"/>
     </row>
@@ -17823,11 +17823,11 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43560</v>
+        <v>43851</v>
       </c>
       <c r="I72" s="1"/>
     </row>
@@ -17853,11 +17853,11 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="H73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43755</v>
+        <v>43861</v>
       </c>
       <c r="I73" s="1"/>
     </row>
@@ -17883,11 +17883,11 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43692</v>
+        <v>43854</v>
       </c>
       <c r="I74" s="1"/>
     </row>
@@ -17913,11 +17913,11 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43778</v>
+        <v>43601</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43591</v>
+        <v>43667</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -17973,11 +17973,11 @@
       </c>
       <c r="G77" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43607</v>
+        <v>43798</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -18003,11 +18003,11 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="H78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43861</v>
+        <v>43714</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -18033,11 +18033,11 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43677</v>
+        <v>43614</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -18063,11 +18063,11 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="H80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43704</v>
+        <v>43842</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -18093,11 +18093,11 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43722</v>
+        <v>43680</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -18123,11 +18123,11 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43786</v>
+        <v>43837</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -18153,11 +18153,11 @@
       </c>
       <c r="G83" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43575</v>
+        <v>43663</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -18183,11 +18183,11 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>43827</v>
+        <v>43852</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -18213,11 +18213,11 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="H85" s="3">
         <f ca="1">RANDBETWEEN(DATE(2019,4,1),DATE(2020,2,20))</f>
-        <v>43719</v>
+        <v>43676</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -18293,18 +18293,18 @@
       </c>
       <c r="B2" s="13">
         <f ca="1">RANDBETWEEN(DATE(2019,2,1),DATE(2020,2,30))</f>
-        <v>43607</v>
+        <v>43749</v>
       </c>
       <c r="C2" s="1">
         <v>34</v>
       </c>
       <c r="D2" s="1">
         <f ca="1">INT((RAND()*84)+1)</f>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">INT((RAND()*100)+1)</f>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1023</v>
@@ -18317,7 +18317,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">INT((RAND()*50)+30)</f>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -18326,18 +18326,18 @@
       </c>
       <c r="B3" s="13">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(DATE(2019,2,1),DATE(2020,2,30))</f>
-        <v>43853</v>
+        <v>43748</v>
       </c>
       <c r="C3" s="1">
         <v>52</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D51" ca="1" si="1">INT((RAND()*84)+1)</f>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E51" ca="1" si="2">INT((RAND()*100)+1)</f>
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1024</v>
@@ -18350,7 +18350,7 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I51" ca="1" si="3">INT((RAND()*50)+30)</f>
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -18359,18 +18359,18 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43615</v>
+        <v>43718</v>
       </c>
       <c r="C4" s="1">
         <v>44</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1025</v>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -18392,18 +18392,18 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43724</v>
+        <v>43645</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1026</v>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -18425,18 +18425,18 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43824</v>
       </c>
       <c r="C6" s="1">
         <v>55</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1027</v>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -18458,18 +18458,18 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43852</v>
+        <v>43668</v>
       </c>
       <c r="C7" s="1">
         <v>25</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1028</v>
@@ -18482,7 +18482,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -18491,18 +18491,18 @@
       </c>
       <c r="B8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43626</v>
+        <v>43647</v>
       </c>
       <c r="C8" s="1">
         <v>45</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1029</v>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -18524,18 +18524,18 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43603</v>
+        <v>43701</v>
       </c>
       <c r="C9" s="1">
         <v>28</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1030</v>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -18557,18 +18557,18 @@
       </c>
       <c r="B10" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43644</v>
+        <v>43785</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1023</v>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -18590,18 +18590,18 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43564</v>
+        <v>43709</v>
       </c>
       <c r="C11" s="1">
         <v>41</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1024</v>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -18623,18 +18623,18 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43734</v>
+        <v>43568</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1025</v>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -18656,18 +18656,18 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="C13" s="1">
         <v>37</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1026</v>
@@ -18680,7 +18680,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -18689,18 +18689,18 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43685</v>
+        <v>43573</v>
       </c>
       <c r="C14" s="1">
         <v>45</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1027</v>
@@ -18713,7 +18713,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -18722,18 +18722,18 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43523</v>
+        <v>43606</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1028</v>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -18755,18 +18755,18 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43886</v>
+        <v>43829</v>
       </c>
       <c r="C16" s="1">
         <v>53</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1029</v>
@@ -18779,7 +18779,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -18788,18 +18788,18 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43817</v>
+        <v>43514</v>
       </c>
       <c r="C17" s="1">
         <v>30</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1030</v>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -18821,18 +18821,18 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43598</v>
+        <v>43506</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1023</v>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -18854,18 +18854,18 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43758</v>
+        <v>43726</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1024</v>
@@ -18878,7 +18878,7 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -18887,18 +18887,18 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43766</v>
+        <v>43799</v>
       </c>
       <c r="C20" s="1">
         <v>38</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1025</v>
@@ -18919,18 +18919,18 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43877</v>
+        <v>43674</v>
       </c>
       <c r="C21" s="1">
         <v>14</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1026</v>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -18952,18 +18952,18 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43837</v>
+        <v>43545</v>
       </c>
       <c r="C22" s="1">
         <v>39</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>1027</v>
@@ -18976,7 +18976,7 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -18985,18 +18985,18 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43644</v>
+        <v>43876</v>
       </c>
       <c r="C23" s="1">
         <v>49</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1028</v>
@@ -19017,18 +19017,18 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43825</v>
+        <v>43753</v>
       </c>
       <c r="C24" s="1">
         <v>35</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1029</v>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -19050,18 +19050,18 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43597</v>
+        <v>43634</v>
       </c>
       <c r="C25" s="1">
         <v>30</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1030</v>
@@ -19074,7 +19074,7 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -19083,18 +19083,18 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43839</v>
+        <v>43808</v>
       </c>
       <c r="C26" s="1">
         <v>28</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1023</v>
@@ -19107,7 +19107,7 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -19116,18 +19116,18 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43876</v>
+        <v>43512</v>
       </c>
       <c r="C27" s="1">
         <v>20</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1024</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -19149,18 +19149,18 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43619</v>
+        <v>43512</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>1025</v>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="I28" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -19182,18 +19182,18 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43757</v>
+        <v>43627</v>
       </c>
       <c r="C29" s="1">
         <v>47</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1026</v>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -19215,18 +19215,18 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43500</v>
+        <v>43570</v>
       </c>
       <c r="C30" s="1">
         <v>34</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1027</v>
@@ -19247,18 +19247,18 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43757</v>
+        <v>43680</v>
       </c>
       <c r="C31" s="1">
         <v>20</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1028</v>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -19280,18 +19280,18 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43862</v>
+        <v>43542</v>
       </c>
       <c r="C32" s="1">
         <v>15</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1029</v>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -19313,18 +19313,18 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43798</v>
+        <v>43610</v>
       </c>
       <c r="C33" s="1">
         <v>24</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1030</v>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43589</v>
+        <v>43881</v>
       </c>
       <c r="C34" s="1">
         <v>44</v>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1023</v>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -19379,18 +19379,18 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43719</v>
+        <v>43601</v>
       </c>
       <c r="C35" s="1">
         <v>55</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1024</v>
@@ -19403,7 +19403,7 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -19412,18 +19412,18 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43771</v>
+        <v>43664</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1025</v>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="I36" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -19445,18 +19445,18 @@
       </c>
       <c r="B37" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43513</v>
+        <v>43631</v>
       </c>
       <c r="C37" s="1">
         <v>20</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1026</v>
@@ -19469,7 +19469,7 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -19478,18 +19478,18 @@
       </c>
       <c r="B38" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43553</v>
+        <v>43791</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1027</v>
@@ -19510,18 +19510,18 @@
       </c>
       <c r="B39" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43666</v>
+        <v>43718</v>
       </c>
       <c r="C39" s="1">
         <v>5</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1028</v>
@@ -19534,7 +19534,7 @@
       </c>
       <c r="I39" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -19543,18 +19543,18 @@
       </c>
       <c r="B40" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43664</v>
+        <v>43544</v>
       </c>
       <c r="C40" s="1">
         <v>51</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1029</v>
@@ -19567,7 +19567,7 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -19576,18 +19576,18 @@
       </c>
       <c r="B41" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43697</v>
+        <v>43685</v>
       </c>
       <c r="C41" s="1">
         <v>50</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>1030</v>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -19609,18 +19609,18 @@
       </c>
       <c r="B42" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <v>43701</v>
       </c>
       <c r="C42" s="1">
         <v>27</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1023</v>
@@ -19633,7 +19633,7 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -19642,18 +19642,18 @@
       </c>
       <c r="B43" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43687</v>
+        <v>43795</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>1024</v>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="I43" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -19675,18 +19675,18 @@
       </c>
       <c r="B44" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43642</v>
+        <v>43743</v>
       </c>
       <c r="C44" s="1">
         <v>33</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1025</v>
@@ -19699,7 +19699,7 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -19708,18 +19708,18 @@
       </c>
       <c r="B45" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43823</v>
+        <v>43760</v>
       </c>
       <c r="C45" s="1">
         <v>47</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1026</v>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="I45" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -19741,18 +19741,18 @@
       </c>
       <c r="B46" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43587</v>
+        <v>43749</v>
       </c>
       <c r="C46" s="1">
         <v>13</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1027</v>
@@ -19773,18 +19773,18 @@
       </c>
       <c r="B47" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43888</v>
+        <v>43676</v>
       </c>
       <c r="C47" s="1">
         <v>7</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>1028</v>
@@ -19797,7 +19797,7 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -19806,18 +19806,18 @@
       </c>
       <c r="B48" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43536</v>
+        <v>43568</v>
       </c>
       <c r="C48" s="1">
         <v>19</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>1029</v>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -19839,18 +19839,18 @@
       </c>
       <c r="B49" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43591</v>
+        <v>43856</v>
       </c>
       <c r="C49" s="1">
         <v>26</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1030</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -19872,18 +19872,18 @@
       </c>
       <c r="B50" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43707</v>
+        <v>43607</v>
       </c>
       <c r="C50" s="1">
         <v>42</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1023</v>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -19905,18 +19905,18 @@
       </c>
       <c r="B51" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>43889</v>
+        <v>43633</v>
       </c>
       <c r="C51" s="1">
         <v>54</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1024</v>
@@ -19929,13 +19929,14 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I51"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
